--- a/data/trans_dic/P07B_R_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P07B_R_2023-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09490449976966843</v>
+        <v>0.09357295333940942</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1669394022516192</v>
+        <v>0.1673503973317254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1414576821707006</v>
+        <v>0.1424492352420867</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1451365480340916</v>
+        <v>0.1450876107580175</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2071834811455283</v>
+        <v>0.2087049823310893</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1735317464643839</v>
+        <v>0.1735609259533223</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.04909895287946826</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07625583648930012</v>
+        <v>0.07625583648930011</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.0624948637194429</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04000168217340754</v>
+        <v>0.03958716466996528</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06666444085608637</v>
+        <v>0.06639165217404557</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05557613089787673</v>
+        <v>0.05584306360710451</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05879418412700566</v>
+        <v>0.05960229989258205</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08831150362765314</v>
+        <v>0.08689308613117507</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0699140713501151</v>
+        <v>0.06977128227794499</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.06032581863596093</v>
+        <v>0.06032581863596092</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.05486939850551143</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.05755368028754046</v>
+        <v>0.05755368028754044</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04223717207550391</v>
+        <v>0.04274051362700901</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04044826837087957</v>
+        <v>0.03930428211598018</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04598525297058029</v>
+        <v>0.04577579696003979</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08467168789444307</v>
+        <v>0.08418824114229487</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07354789522761138</v>
+        <v>0.07072880115825771</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07209267218655283</v>
+        <v>0.07175963442067734</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.06249520821668576</v>
+        <v>0.06249520821668578</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.09639851081274634</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05374873118255833</v>
+        <v>0.05517077725738226</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08848950749471095</v>
+        <v>0.08856211755189332</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07458409941948822</v>
+        <v>0.07421102912820886</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07118717755008722</v>
+        <v>0.07137364167333267</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1052752767663805</v>
+        <v>0.1059097492678818</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08586126603818624</v>
+        <v>0.08604775945884627</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>54905</v>
+        <v>54135</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>137231</v>
+        <v>137568</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>198121</v>
+        <v>199510</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>83966</v>
+        <v>83937</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>170313</v>
+        <v>171563</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>243043</v>
+        <v>243084</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>89226</v>
+        <v>88302</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>144755</v>
+        <v>144162</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>244644</v>
+        <v>245819</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>131144</v>
+        <v>132947</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>191759</v>
+        <v>188679</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>307759</v>
+        <v>307130</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>30055</v>
+        <v>30414</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>29725</v>
+        <v>28884</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>66516</v>
+        <v>66213</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>60251</v>
+        <v>59907</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>54049</v>
+        <v>51977</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>104279</v>
+        <v>103798</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>189232</v>
+        <v>194239</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>329916</v>
+        <v>330187</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>540659</v>
+        <v>537955</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>250627</v>
+        <v>251284</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>392499</v>
+        <v>394864</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>622407</v>
+        <v>623759</v>
       </c>
     </row>
     <row r="20">
